--- a/voGen/src/main/java/excel/sample.xlsx
+++ b/voGen/src/main/java/excel/sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="20415" windowHeight="8235" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="20415" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="data1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="84">
   <si>
     <t>테이블명</t>
   </si>
@@ -44,12 +44,6 @@
     <t>비고</t>
   </si>
   <si>
-    <t>코드그룹기본</t>
-  </si>
-  <si>
-    <t>WE_CD_GRP_B</t>
-  </si>
-  <si>
     <t>코드그룹ID</t>
   </si>
   <si>
@@ -65,104 +59,273 @@
     <t>N</t>
   </si>
   <si>
+    <t>NVARCHAR</t>
+  </si>
+  <si>
+    <t>리소스ID</t>
+  </si>
+  <si>
+    <t>RESC_ID</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>코드상세</t>
+  </si>
+  <si>
+    <t>WE_CD_D</t>
+  </si>
+  <si>
+    <t>코드ID</t>
+  </si>
+  <si>
+    <t>CD_ID</t>
+  </si>
+  <si>
+    <t>코드명</t>
+  </si>
+  <si>
+    <t>CD_NM</t>
+  </si>
+  <si>
+    <t>사용여부</t>
+  </si>
+  <si>
+    <t>USE_YN</t>
+  </si>
+  <si>
+    <t>정렬순서</t>
+  </si>
+  <si>
+    <t>SORT_ORDR</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>회사ID</t>
   </si>
   <si>
     <t>COMP_ID</t>
   </si>
   <si>
-    <t>코드그룹명</t>
-  </si>
-  <si>
-    <t>CD_GRP_NM</t>
+    <t>등록자UID</t>
+  </si>
+  <si>
+    <t>REGR_UID</t>
+  </si>
+  <si>
+    <t>등록일시</t>
+  </si>
+  <si>
+    <t>REG_DT</t>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일상세</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJ_WORK_REPRT_FILE_D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>REF_ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>표시이름</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISP_NM</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>표시순서</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISP_ORDR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일확장자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_EXT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일크기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_SIZE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장경로</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAVE_PATH</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용여부</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_YN</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGR_UID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일시</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG_DT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJ_WORK_REPRT_FILE_D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">업무보고 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJ_WORK_REPRT_B</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPRT_NO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>조직ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORG_ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBJ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR</t>
-  </si>
-  <si>
-    <t>리소스ID</t>
-  </si>
-  <si>
-    <t>RESC_ID</t>
-  </si>
-  <si>
-    <t>코드사용여부</t>
-  </si>
-  <si>
-    <t>CD_USE_YN</t>
-  </si>
-  <si>
-    <t>CHAR</t>
-  </si>
-  <si>
-    <t>등록자UID</t>
-  </si>
-  <si>
-    <t>REGR_UID</t>
-  </si>
-  <si>
-    <t>등록일시</t>
-  </si>
-  <si>
-    <t>REG_DT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>like</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTEXT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정자UID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODR_UID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일시</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOD_DT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>DATETIME</t>
-  </si>
-  <si>
-    <t>수정자UID</t>
-  </si>
-  <si>
-    <t>MODR_UID</t>
-  </si>
-  <si>
-    <t>수정일시</t>
-  </si>
-  <si>
-    <t>MOD_DT</t>
-  </si>
-  <si>
-    <t>코드상세</t>
-  </si>
-  <si>
-    <t>WE_CD_D</t>
-  </si>
-  <si>
-    <t>코드ID</t>
-  </si>
-  <si>
-    <t>CD_ID</t>
-  </si>
-  <si>
-    <t>코드명</t>
-  </si>
-  <si>
-    <t>CD_NM</t>
-  </si>
-  <si>
-    <t>사용여부</t>
-  </si>
-  <si>
-    <t>USE_YN</t>
-  </si>
-  <si>
-    <t>정렬순서</t>
-  </si>
-  <si>
-    <t>SORT_ORDR</t>
-  </si>
-  <si>
-    <t>INT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +363,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -266,21 +435,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -288,7 +451,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -299,6 +462,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -596,16 +777,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
@@ -615,21 +796,21 @@
     <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -644,232 +825,504 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="K1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G3" s="9">
+        <v>30</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="9">
+        <v>30</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="9">
+        <v>240</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="9">
+        <v>30</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="9">
+        <v>30</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="I11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J11" s="13"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="G13" s="10">
+        <v>240</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="10">
+        <v>30</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="10">
+        <v>240</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3">
-        <v>3</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="10">
+        <v>30</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3">
-        <v>120</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3">
-        <v>30</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="3">
-        <v>30</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3">
-        <v>30</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -881,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -899,190 +1352,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6">
+        <v>30</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8">
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6">
         <v>30</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="G4" s="6">
+        <v>120</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="G5" s="6">
+        <v>30</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8">
-        <v>30</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="8">
-        <v>120</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="8">
-        <v>30</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="8"/>
+      <c r="A7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
